--- a/biology/Médecine/Insuline_lispro/Insuline_lispro.xlsx
+++ b/biology/Médecine/Insuline_lispro/Insuline_lispro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'insuline lispro est un médicament indiqué pour contrôler la glycémie (taux de sucre dans le sang) chez l’adulte et l’enfant atteints de diabète sucré de type 1 ou de type 2 et nécessitant un traitement par insuline. L'insuline lispro est classée dans les insulines ultra-rapides c'est-à-dire qu'elle bénéficie d'une mise en action plus courte (&lt; 20 min) et une durée d’action plus brève après leur injection sous-cutanée. Le premier analogue ultra-rapide mis sur le marché est l’analogue lispro Humalog.
@@ -512,9 +524,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grâce à la technologie de l'ADN recombinant, la molécule comporte une inversion de deux acides aminés en C-terminal de la chaîne B (proline B28 et lysine B29). Cette modification n'altère pas la liaison au récepteur, mais bloque la formation de dimères et d'hexamères d'insuline. Cela permet à de plus grandes quantités d'insuline monomère active d'être immédiatement disponibles pour les injections postprandiales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce à la technologie de l'ADN recombinant, la molécule comporte une inversion de deux acides aminés en C-terminal de la chaîne B (proline B28 et lysine B29). Cette modification n'altère pas la liaison au récepteur, mais bloque la formation de dimères et d'hexamères d'insuline. Cela permet à de plus grandes quantités d'insuline monomère active d'être immédiatement disponibles pour les injections postprandiales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son délai d’action, de l’ordre de 5 à 15 minutes, est deux fois plus court que celui de l'insuline rapide conventionnelle, avec un pic d’action autour de 30 à 90 minutes. Leur durée d’action est également environ deux fois plus courte que l'insuline rapide conventionnelle et se situe autour de quatre à six heures. Cette cinétique dépend de l’individu[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son délai d’action, de l’ordre de 5 à 15 minutes, est deux fois plus court que celui de l'insuline rapide conventionnelle, avec un pic d’action autour de 30 à 90 minutes. Leur durée d’action est également environ deux fois plus courte que l'insuline rapide conventionnelle et se situe autour de quatre à six heures. Cette cinétique dépend de l’individu. 
 </t>
         </is>
       </c>
